--- a/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
+++ b/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
@@ -5,14 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="State Data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Description" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$2:$C$96</definedName>
+  </definedNames>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t xml:space="preserve">Child mortality rates by Indigenous status: NSW, Qld, WA, SA and the NT, 1998 to 2018</t>
   </si>
@@ -33,7 +36,7 @@
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Aust</t>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Indigenous rate</t>
@@ -54,7 +57,7 @@
     <t xml:space="preserve">Projected non-Indigenous rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Child mortality rates (0-4 years) by Indigenous status: 2011-2015</t>
+    <t xml:space="preserve">Child mortality rates (0-4 years) by Indigenous status: 2012-2016</t>
   </si>
   <si>
     <t xml:space="preserve">Cohort</t>
@@ -75,7 +78,7 @@
     <t xml:space="preserve">NT</t>
   </si>
   <si>
-    <t xml:space="preserve">2011-2015</t>
+    <t xml:space="preserve">2012-2016</t>
   </si>
   <si>
     <t xml:space="preserve">Indigenous</t>
@@ -114,7 +117,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Not on track</t>
+    <t xml:space="preserve">On track</t>
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
@@ -123,13 +126,13 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">This target is not on track this year. The 2015 Indigenous child mortality rate was slightly outside the range required for this target to be on track. Over the long-term (1998 to 2015), the Indigenous child mortality rate declined significantly (by 33 per cent). There was also a significant narrowing (31 per cent) of the child mortality gap. In the short-term, the decline in Indigenous child mortality rates between 2008 and 2015 was not statistically significant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State and territory child mortality rates by Indigenous status for the period 2011 to 2015 show there is some variation by geography. New South Wales had the lowest Indigenous child mortality rate (111 child deaths per 100,000 population) and the smallest gap compared with non-Indigenous children. The Northern Territory had the highest Indigenous child mortality rate (333 child deaths per 100,000 population) and the largest absolute gap.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trend analysis for individual jurisdictions is not reliable due to the small number of deaths each year.</t>
+    <t xml:space="preserve">This target is on track this year. The 2016 Indigenous child mortality rate has returned to being within the range required for this target to be on track. Over the long-term (1998 to 2016), the Indigenous child mortality rate declined significantly (by 35 per cent). There was also a significant narrowing (32 per cent) of the child mortality gap. In the short-term, the decline in Indigenous child mortality rates between 2008 and 2016 was not statistically significant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State and Territory child mortality rates by Indigenous status for the period 2012 to 2016 show there is some variation by geography. New South Wales had the lowest Indigenous child mortality rate (110 child deaths per 100,000 population) and the smallest gap compared with non-Indigenous children. The Northern Territory had the highest Indigenous child mortality rate (332 child deaths per 100,000 population) and the largest absolute gap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trend analysis for individual jurisdictions are not reliable due to the small number of deaths each year.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -138,19 +141,19 @@
     <t xml:space="preserve">Indigenous mortality rates are presented for the five jurisdictions with sufficient quality Indigenous identification in mortality data to publish (NSW, Qld, WA, SA and NT).</t>
   </si>
   <si>
-    <t xml:space="preserve">Indigenous child mortality rates are highly volatile due to small numbers. For 2015 data, the Queensland Registry of Births, Deaths and Marriages included Medical Certificate of Cause of Death information for the first time to contribute to the Indigenous status data item. This data improvement was associated with a decrease in the number of deaths for which the Indigenous status was 'not stated' and an increase in the number of deaths identified as Indigenous in Queensland. Although the Indigenous child mortality rate was higher in Queensland in 2015, for New South Wales, Western Australia and South Australia the rates were lower in 2015 than in 2014. This change in method means that time series data for Queensland are not directly comparable and caution should be used in interpreting the trend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The time series graph presents mortality trends from 1998 to 2015 (latest data available) and trajectory to the 2018 target year to halve the gap. Indigenous data points from the 2008 baseline to 2015 are plotted against the trajectory to monitor progress. Variability bands represent the range required to meet the target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to small numbers the child mortality trajectory is only assessed for the five jurisdictions combined (NSW, Qld, WA, SA and NT). The 2015 result was four deaths outside the range of the target and an increase of six deaths since 2014.</t>
+    <t xml:space="preserve">Indigenous child mortality rates are highly volatile due to small numbers. From 2015, deaths data provided by the Queensland Registry of Births, Deaths and Marriages include information resulting in an increase in the number of deaths identified as Aboriginal and Torres Strait Islander in Queensland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time series graph presents mortality trends from 1998 to 2016 (latest data available) and trajectory to the 2018 target year to halve the gap. Indigenous data points from the 2008 baseline to 2016 are plotted against the trajectory to monitor progress. Variability bands represent the range required to meet the target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to small numbers the child mortality trajectory is only assessed for the five jurisdictions combined (NSW, Qld, WA, SA and NT).</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS and AIHW analysis of National Mortality Database.</t>
+    <t xml:space="preserve">ABS and AIHW analysis of National Mortality Database; SCRGSP 2018, National Agreement Performance Information 2016-17: National Indigenous Reform Agreement, tables NIRA.6.1 and 6.5; Commonwealth of Australia (2018), Department of the Prime Minister and Cabinet, Closing the Gap Prime Minister’s Report 2018.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,87 +186,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -287,13 +209,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,74 +232,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF00000A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -395,7 +268,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,61 +292,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,15 +314,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,7 +342,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,57 +350,45 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -575,7 +400,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -591,7 +416,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -618,25 +443,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -647,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1998</v>
       </c>
@@ -658,7 +483,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1998</v>
       </c>
@@ -669,7 +494,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1998</v>
       </c>
@@ -680,7 +505,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1998</v>
       </c>
@@ -691,7 +516,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1999</v>
       </c>
@@ -702,7 +527,7 @@
         <v>237.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>1999</v>
       </c>
@@ -713,7 +538,7 @@
         <v>264.8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>1999</v>
       </c>
@@ -724,7 +549,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>1999</v>
       </c>
@@ -735,7 +560,7 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2000</v>
       </c>
@@ -746,7 +571,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>2000</v>
       </c>
@@ -757,7 +582,7 @@
         <v>258.7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>2000</v>
       </c>
@@ -768,7 +593,7 @@
         <v>188.1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>2000</v>
       </c>
@@ -779,7 +604,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2001</v>
       </c>
@@ -790,7 +615,7 @@
         <v>206.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2001</v>
       </c>
@@ -801,7 +626,7 @@
         <v>252.6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2001</v>
       </c>
@@ -812,7 +637,7 @@
         <v>183.1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2001</v>
       </c>
@@ -823,7 +648,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>2002</v>
       </c>
@@ -834,7 +659,7 @@
         <v>220.7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>2002</v>
       </c>
@@ -845,7 +670,7 @@
         <v>246.7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>2002</v>
       </c>
@@ -856,7 +681,7 @@
         <v>178.1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>2002</v>
       </c>
@@ -867,7 +692,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>2003</v>
       </c>
@@ -878,7 +703,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>2003</v>
       </c>
@@ -889,7 +714,7 @@
         <v>240.7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>2003</v>
       </c>
@@ -900,7 +725,7 @@
         <v>173.1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>2003</v>
       </c>
@@ -911,7 +736,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>2004</v>
       </c>
@@ -922,7 +747,7 @@
         <v>195.1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2004</v>
       </c>
@@ -933,7 +758,7 @@
         <v>234.7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>2004</v>
       </c>
@@ -944,7 +769,7 @@
         <v>168.1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>2004</v>
       </c>
@@ -955,7 +780,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>2005</v>
       </c>
@@ -966,7 +791,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>2005</v>
       </c>
@@ -977,7 +802,7 @@
         <v>228.6</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>2005</v>
       </c>
@@ -988,7 +813,7 @@
         <v>163.2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>2005</v>
       </c>
@@ -999,7 +824,7 @@
         <v>110.6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>2006</v>
       </c>
@@ -1010,7 +835,7 @@
         <v>184.5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2006</v>
       </c>
@@ -1021,7 +846,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>2006</v>
       </c>
@@ -1032,7 +857,7 @@
         <v>158.3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>2006</v>
       </c>
@@ -1043,7 +868,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>2007</v>
       </c>
@@ -1054,7 +879,7 @@
         <v>188.2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>2007</v>
       </c>
@@ -1065,7 +890,7 @@
         <v>216.3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>2007</v>
       </c>
@@ -1076,7 +901,7 @@
         <v>153.4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>2007</v>
       </c>
@@ -1087,7 +912,7 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1098,7 +923,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1109,7 +934,7 @@
         <v>210.2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1120,7 +945,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1131,7 +956,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1142,7 +967,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1153,7 +978,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1164,7 +989,7 @@
         <v>210.2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1175,7 +1000,7 @@
         <v>148.6</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1186,7 +1011,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1197,7 +1022,7 @@
         <v>172.7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1208,7 +1033,7 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1219,7 +1044,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1230,7 +1055,7 @@
         <v>142.4</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1241,7 +1066,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>2010</v>
       </c>
@@ -1252,7 +1077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1263,7 +1088,7 @@
         <v>169.1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1274,7 +1099,7 @@
         <v>195.4</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1285,7 +1110,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1296,7 +1121,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>2011</v>
       </c>
@@ -1307,7 +1132,7 @@
         <v>159.2</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1318,7 +1143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1329,7 +1154,7 @@
         <v>180.8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1340,7 +1165,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1351,7 +1176,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>2012</v>
       </c>
@@ -1362,311 +1187,322 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
         <v>2012</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="4" t="n">
+      <c r="B68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="6" t="n">
         <v>79.2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="4" t="n">
+      <c r="C69" s="6" t="n">
         <v>184.7</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="4" t="n">
+      <c r="B70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="6" t="n">
         <v>173.4</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="4" t="n">
+      <c r="B71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="6" t="n">
         <v>118.3</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="6" t="n">
         <v>145.8</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>87.3</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="B73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="6" t="n">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="4" t="n">
+      <c r="C74" s="6" t="n">
         <v>159.1</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="4" t="n">
+      <c r="B75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="6" t="n">
         <v>165.9</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="4" t="n">
+      <c r="B76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="6" t="n">
         <v>112.3</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="4" t="n">
+      <c r="C77" s="6" t="n">
         <v>139.1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="4" t="n">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="6" t="n">
+        <v>73.4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="4" t="n">
+      <c r="C79" s="6" t="n">
         <v>163.6</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="4" t="n">
+      <c r="B80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="6" t="n">
         <v>158.3</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="4" t="n">
+      <c r="B81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="6" t="n">
         <v>106.5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="4" t="n">
+      <c r="C82" s="6" t="n">
         <v>132.4</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="B83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="4" t="n">
+      <c r="B84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6" t="n">
+        <v>145.6</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6" t="n">
         <v>150.7</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="4" t="n">
+      <c r="B86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="6" t="n">
         <v>100.8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B87" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="4" t="n">
+      <c r="C87" s="6" t="n">
         <v>125.7</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="4" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="4" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="6" t="n">
+        <v>69.1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="4" t="n">
+      <c r="C92" s="4" t="n">
         <v>78.9</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>135.3</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135.3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" s="4" t="n">
-        <v>112.3</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="4" t="n">
+      <c r="C96" s="4" t="n">
         <v>76.9</v>
       </c>
     </row>
@@ -1689,222 +1525,223 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>110.5</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>162.7</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>167.3</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>332.9</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>164.9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>331.7</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <v>145</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>207</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>98</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" s="7" t="n">
+      <c r="D4" s="10" t="n">
+        <v>146</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>196</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>99</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="n">
         <v>121</v>
       </c>
-      <c r="I4" s="7" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="I4" s="10" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>80.6</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>80.1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="9" t="n">
+        <v>75.1</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>1838</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>1395</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>419</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>327</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>4033</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="10" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>1368</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>420</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>336</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H7" s="6" t="n">
+      <c r="D7" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="9" t="n">
         <v>3.6</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="G7" s="9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I7" s="9" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>135.2</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>98.6</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>239.7</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>85.8</v>
+      <c r="D8" s="9" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>85.9</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>244.6</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>83.2</v>
       </c>
     </row>
   </sheetData>
@@ -1923,99 +1760,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="13" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="141.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13" t="s">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
+    <row r="10" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="s">
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
     </row>

--- a/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
+++ b/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
+    <t xml:space="preserve">Aust</t>
   </si>
   <si>
     <t xml:space="preserve">Indigenous rate</t>
@@ -293,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,7 +302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,18 +311,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,8 +433,8 @@
   </sheetPr>
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1188,233 +1176,233 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
+      <c r="A68" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="6" t="n">
+      <c r="B68" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="4" t="n">
         <v>79.2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
+      <c r="A69" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="6" t="n">
+      <c r="C69" s="4" t="n">
         <v>184.7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
+      <c r="A70" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="6" t="n">
+      <c r="B70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="4" t="n">
         <v>173.4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="n">
+      <c r="A71" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="6" t="n">
+      <c r="B71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="n">
         <v>118.3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
+      <c r="A72" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="6" t="n">
+      <c r="C72" s="4" t="n">
         <v>145.8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="n">
+      <c r="A73" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="6" t="n">
+      <c r="B73" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="4" t="n">
         <v>84.1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
+      <c r="A74" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="6" t="n">
+      <c r="C74" s="4" t="n">
         <v>159.1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="n">
+      <c r="A75" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="6" t="n">
+      <c r="B75" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4" t="n">
         <v>165.9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
+      <c r="A76" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="6" t="n">
+      <c r="B76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4" t="n">
         <v>112.3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
+      <c r="A77" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="6" t="n">
+      <c r="C77" s="4" t="n">
         <v>139.1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
+      <c r="A78" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="6" t="n">
+      <c r="B78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4" t="n">
         <v>73.4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
+      <c r="A79" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="6" t="n">
+      <c r="C79" s="4" t="n">
         <v>163.6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="6" t="n">
+      <c r="B80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="4" t="n">
         <v>158.3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
+      <c r="A81" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="6" t="n">
+      <c r="B81" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="n">
         <v>106.5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
+      <c r="A82" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="6" t="n">
+      <c r="C82" s="4" t="n">
         <v>132.4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="n">
+      <c r="A83" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="6" t="n">
+      <c r="B83" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="4" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
+      <c r="A84" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="6" t="n">
+      <c r="C84" s="4" t="n">
         <v>145.6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
+      <c r="A85" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="6" t="n">
+      <c r="B85" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4" t="n">
         <v>150.7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
+      <c r="A86" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="6" t="n">
+      <c r="B86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="4" t="n">
         <v>100.8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="n">
+      <c r="A87" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="6" t="n">
+      <c r="C87" s="4" t="n">
         <v>125.7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
+      <c r="A88" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="6" t="n">
+      <c r="B88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4" t="n">
         <v>69.1</v>
       </c>
     </row>
@@ -1524,8 +1512,8 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1542,205 +1530,205 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="6" t="n">
         <v>151.4</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="6" t="n">
         <v>189.4</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="6" t="n">
         <v>155.9</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="6" t="n">
         <v>331.7</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="6" t="n">
         <v>159.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="7" t="n">
         <v>146</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="7" t="n">
         <v>196</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="7" t="n">
         <v>99</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="7" t="n">
         <v>121</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="7" t="n">
         <v>598</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="6" t="n">
         <v>75.1</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="6" t="n">
         <v>94.3</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="6" t="n">
         <v>52.6</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="6" t="n">
         <v>87.1</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="6" t="n">
         <v>76.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="7" t="n">
         <v>1729</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="7" t="n">
         <v>1368</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="7" t="n">
         <v>420</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="7" t="n">
         <v>336</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="7" t="n">
         <v>3904</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="6" t="n">
         <v>1.6</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="6" t="n">
         <v>3.6</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="6" t="n">
         <v>2.2</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="6" t="n">
         <v>3.8</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="6" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="6" t="n">
         <v>34.9</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="6" t="n">
         <v>57.2</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="6" t="n">
         <v>136.8</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="6" t="n">
         <v>85.9</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="6" t="n">
         <v>244.6</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="6" t="n">
         <v>83.2</v>
       </c>
     </row>
@@ -1774,87 +1762,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="10" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
     </row>

--- a/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
+++ b/dashboard_loader/indigenous_child_mortality_uploader/indigenous_child_mortality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">This target is on track this year. The 2016 Indigenous child mortality rate has returned to being within the range required for this target to be on track. Over the long-term (1998 to 2016), the Indigenous child mortality rate declined significantly (by 35 per cent). There was also a significant narrowing (32 per cent) of the child mortality gap. In the short-term, the decline in Indigenous child mortality rates between 2008 and 2016 was not statistically significant.</t>
+    <t xml:space="preserve">This target is on track this year. The 2016 Indigenous child mortality rate has returned to being within the range required for this target to be on track. Over the long-term (1998 to 2016), the Indigenous child mortality rate declined significantly (by 35 per cent). There was also a significant narrowing (32 per cent) of the child mortality gap. The decline in Indigenous child mortality rates between 2008 (the baseline year) and 2016 was not statistically significant.</t>
   </si>
   <si>
     <t xml:space="preserve">State and Territory child mortality rates by Indigenous status for the period 2012 to 2016 show there is some variation by geography. New South Wales had the lowest Indigenous child mortality rate (110 child deaths per 100,000 population) and the smallest gap compared with non-Indigenous children. The Northern Territory had the highest Indigenous child mortality rate (332 child deaths per 100,000 population) and the largest absolute gap.</t>
@@ -1512,7 +1512,7 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1750,8 +1750,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1793,7 +1793,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="72.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="14" t="s">
         <v>38</v>
